--- a/data/exceptions.xlsx
+++ b/data/exceptions.xlsx
@@ -432,7 +432,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Galandor Moshe Yakov</v>
+        <v>Chen Noam</v>
       </c>
       <c r="B2" t="str">
         <v>UNDER</v>
@@ -441,10 +441,10 @@
         <v>2026-01-18</v>
       </c>
       <c r="D2" t="str">
-        <v>2026-04-18</v>
+        <v>2026-02-15</v>
       </c>
       <c r="E2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F2" t="str">
         <v>None</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Noiman Yehuda</v>
+        <v>Galandor Moshe Yakov</v>
       </c>
       <c r="B3" t="str">
         <v>UNDER</v>
@@ -461,10 +461,10 @@
         <v>2026-01-18</v>
       </c>
       <c r="D3" t="str">
-        <v>2026-01-31</v>
+        <v>2026-04-18</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F3" t="str">
         <v>None</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Itzhaki Yair</v>
+        <v>Meir Zipora</v>
       </c>
       <c r="B4" t="str">
         <v>UNDER</v>
@@ -481,10 +481,10 @@
         <v>2026-01-18</v>
       </c>
       <c r="D4" t="str">
-        <v>2026-04-18</v>
+        <v>2026-02-28</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="F4" t="str">
         <v>None</v>
@@ -498,13 +498,13 @@
         <v>UNDER</v>
       </c>
       <c r="C5" t="str">
-        <v>2026-02-01</v>
+        <v>2026-01-18</v>
       </c>
       <c r="D5" t="str">
-        <v>2026-04-18</v>
+        <v>2026-01-31</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F5" t="str">
         <v>None</v>
@@ -512,16 +512,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Chen Noam</v>
+        <v>Noiman Yehuda</v>
       </c>
       <c r="B6" t="str">
         <v>UNDER</v>
       </c>
       <c r="C6" t="str">
-        <v>2026-02-16</v>
+        <v>2026-01-18</v>
       </c>
       <c r="D6" t="str">
-        <v>2026-04-18</v>
+        <v>2026-01-31</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -532,19 +532,19 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Meir Zipora</v>
+        <v>Weingarten Ayala</v>
       </c>
       <c r="B7" t="str">
         <v>UNDER</v>
       </c>
       <c r="C7" t="str">
-        <v>2026-03-01</v>
+        <v>2026-01-18</v>
       </c>
       <c r="D7" t="str">
-        <v>2026-04-18</v>
+        <v>2026-02-28</v>
       </c>
       <c r="E7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" t="str">
         <v>None</v>
@@ -552,19 +552,19 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Weingarten Ayala</v>
+        <v>Itzhaki Yair</v>
       </c>
       <c r="B8" t="str">
         <v>UNDER</v>
       </c>
       <c r="C8" t="str">
-        <v>2026-03-01</v>
+        <v>2026-01-18</v>
       </c>
       <c r="D8" t="str">
         <v>2026-04-18</v>
       </c>
       <c r="E8">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F8" t="str">
         <v>None</v>
@@ -572,16 +572,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Levin Yanir</v>
+        <v>Peretz Yehonathan</v>
       </c>
       <c r="B9" t="str">
         <v>UNDER</v>
       </c>
       <c r="C9" t="str">
-        <v>2026-03-01</v>
+        <v>2026-01-18</v>
       </c>
       <c r="D9" t="str">
-        <v>2026-04-18</v>
+        <v>2026-03-31</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -592,16 +592,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Halevy Maor</v>
+        <v>Levin Yanir</v>
       </c>
       <c r="B10" t="str">
         <v>UNDER</v>
       </c>
       <c r="C10" t="str">
-        <v>2026-03-01</v>
+        <v>2026-01-18</v>
       </c>
       <c r="D10" t="str">
-        <v>2026-04-18</v>
+        <v>2026-02-28</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -612,16 +612,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Peretz Yehonathan</v>
+        <v>Halevy Maor</v>
       </c>
       <c r="B11" t="str">
         <v>UNDER</v>
       </c>
       <c r="C11" t="str">
-        <v>2026-04-01</v>
+        <v>2026-01-18</v>
       </c>
       <c r="D11" t="str">
-        <v>2026-04-18</v>
+        <v>2026-02-28</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -638,10 +638,10 @@
         <v>UNDER</v>
       </c>
       <c r="C12" t="str">
-        <v>2026-04-01</v>
+        <v>2026-01-18</v>
       </c>
       <c r="D12" t="str">
-        <v>2026-04-18</v>
+        <v>2026-03-31</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -658,10 +658,10 @@
         <v>UNDER</v>
       </c>
       <c r="C13" t="str">
-        <v>2026-04-01</v>
+        <v>2026-01-18</v>
       </c>
       <c r="D13" t="str">
-        <v>2026-04-18</v>
+        <v>2026-03-31</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -678,10 +678,10 @@
         <v>UNDER</v>
       </c>
       <c r="C14" t="str">
-        <v>2026-04-01</v>
+        <v>2026-01-18</v>
       </c>
       <c r="D14" t="str">
-        <v>2026-04-18</v>
+        <v>2026-03-31</v>
       </c>
       <c r="E14">
         <v>100</v>

--- a/data/exceptions.xlsx
+++ b/data/exceptions.xlsx
@@ -447,7 +447,7 @@
         <v>100</v>
       </c>
       <c r="F2" t="str">
-        <v>None</v>
+        <v>Sightec (Israel) Ltd.</v>
       </c>
     </row>
     <row r="3">
@@ -487,7 +487,7 @@
         <v>87</v>
       </c>
       <c r="F4" t="str">
-        <v>None</v>
+        <v>BioXtreme Ltd.</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Noiman Yehuda</v>
+        <v>Weingarten Ayala</v>
       </c>
       <c r="B6" t="str">
         <v>UNDER</v>
@@ -521,18 +521,18 @@
         <v>2026-01-18</v>
       </c>
       <c r="D6" t="str">
-        <v>2026-01-31</v>
+        <v>2026-02-28</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F6" t="str">
-        <v>None</v>
+        <v>Arad Technologies Ltd.</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Weingarten Ayala</v>
+        <v>Itzhaki Yair</v>
       </c>
       <c r="B7" t="str">
         <v>UNDER</v>
@@ -541,10 +541,10 @@
         <v>2026-01-18</v>
       </c>
       <c r="D7" t="str">
-        <v>2026-02-28</v>
+        <v>2026-04-18</v>
       </c>
       <c r="E7">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F7" t="str">
         <v>None</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Itzhaki Yair</v>
+        <v>Peretz Yehonathan</v>
       </c>
       <c r="B8" t="str">
         <v>UNDER</v>
@@ -561,18 +561,18 @@
         <v>2026-01-18</v>
       </c>
       <c r="D8" t="str">
-        <v>2026-04-18</v>
+        <v>2026-03-31</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F8" t="str">
-        <v>None</v>
+        <v>Red Sea</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Peretz Yehonathan</v>
+        <v>Levin Yanir</v>
       </c>
       <c r="B9" t="str">
         <v>UNDER</v>
@@ -581,18 +581,18 @@
         <v>2026-01-18</v>
       </c>
       <c r="D9" t="str">
-        <v>2026-03-31</v>
+        <v>2026-02-28</v>
       </c>
       <c r="E9">
         <v>100</v>
       </c>
       <c r="F9" t="str">
-        <v>None</v>
+        <v>Speedata Ltd</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Levin Yanir</v>
+        <v>Halevy Maor</v>
       </c>
       <c r="B10" t="str">
         <v>UNDER</v>
@@ -607,12 +607,12 @@
         <v>100</v>
       </c>
       <c r="F10" t="str">
-        <v>None</v>
+        <v>Rav Bariach Locks Products LTD.</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Halevy Maor</v>
+        <v>Cohen Aharon</v>
       </c>
       <c r="B11" t="str">
         <v>UNDER</v>
@@ -621,18 +621,18 @@
         <v>2026-01-18</v>
       </c>
       <c r="D11" t="str">
-        <v>2026-02-28</v>
+        <v>2026-03-31</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
       <c r="F11" t="str">
-        <v>None</v>
+        <v>Aquestia Ltd.</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Cohen Aharon</v>
+        <v>Pruzanski Yossi</v>
       </c>
       <c r="B12" t="str">
         <v>UNDER</v>
@@ -647,12 +647,12 @@
         <v>100</v>
       </c>
       <c r="F12" t="str">
-        <v>None</v>
+        <v>Maytronics Ltd.</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Pruzanski Yossi</v>
+        <v>Morgenstern Elisheva</v>
       </c>
       <c r="B13" t="str">
         <v>UNDER</v>
@@ -667,21 +667,21 @@
         <v>100</v>
       </c>
       <c r="F13" t="str">
-        <v>None</v>
+        <v>Red Sea</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Morgenstern Elisheva</v>
+        <v>Noiman Yehuda</v>
       </c>
       <c r="B14" t="str">
         <v>UNDER</v>
       </c>
       <c r="C14" t="str">
-        <v>2026-01-18</v>
+        <v>2026-02-01</v>
       </c>
       <c r="D14" t="str">
-        <v>2026-03-31</v>
+        <v>2026-04-18</v>
       </c>
       <c r="E14">
         <v>100</v>
